--- a/info/Tablas.xlsx
+++ b/info/Tablas.xlsx
@@ -5,19 +5,19 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ruben\Desktop\Proyecto_Funcoe_2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ruben\Desktop\Proyecto_Funcoe_2023\info\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" firstSheet="5" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Asesores" sheetId="1" r:id="rId1"/>
     <sheet name="Conceptos" sheetId="2" r:id="rId2"/>
     <sheet name="Dias" sheetId="3" r:id="rId3"/>
-    <sheet name="Docente" sheetId="4" r:id="rId4"/>
-    <sheet name="Estudiante" sheetId="5" r:id="rId5"/>
-    <sheet name="Matricula" sheetId="6" r:id="rId6"/>
+    <sheet name="Matricula" sheetId="6" r:id="rId4"/>
+    <sheet name="Docente" sheetId="4" r:id="rId5"/>
+    <sheet name="Estudiante" sheetId="5" r:id="rId6"/>
     <sheet name="Modulos" sheetId="7" r:id="rId7"/>
     <sheet name="Pagos" sheetId="8" r:id="rId8"/>
     <sheet name="Pensum" sheetId="9" r:id="rId9"/>
@@ -515,6 +515,66 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="11620500" cy="2171700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>723900</xdr:colOff>
       <xdr:row>3</xdr:row>
@@ -565,7 +625,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -604,66 +664,6 @@
         <a:xfrm>
           <a:off x="0" y="0"/>
           <a:ext cx="10677525" cy="7305675"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagen 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="11620500" cy="2171700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1130,7 +1130,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
@@ -1249,7 +1249,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
